--- a/sql/Planning.xlsx
+++ b/sql/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AE_Benevole\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B3580D-5408-4434-8202-6835AD7E1EDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE83750-C2BB-4502-8A6C-7D18C371C055}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{B0988CF8-9C99-4993-ABA1-81AD810CA8F3}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
